--- a/input.xlsx
+++ b/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC43E10-90C3-4804-AB31-571BB3880654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F17FEC0-E991-4846-BAB9-4A3677CE23F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>barathbhaskaran32@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>name</t>
   </si>
@@ -36,14 +33,14 @@
     <t>email</t>
   </si>
   <si>
-    <t>BarathBhaskaran</t>
+    <t>domain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +61,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF1D262E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF3A444F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,10 +103,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -372,10 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -384,26 +407,99 @@
     <col min="2" max="2" width="31.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{8CB4ED59-15EF-46D5-8A34-2093A0949673}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>